--- a/output/0/tRNA-Ser-GCT-6-1.xlsx
+++ b/output/0/tRNA-Ser-GCT-6-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>chr6</t>
   </si>
@@ -147,39 +147,6 @@
   </si>
   <si>
     <t>27</t>
-  </si>
-  <si>
-    <t>26305988</t>
-  </si>
-  <si>
-    <t>26306011</t>
-  </si>
-  <si>
-    <t>26306008</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>AAAAATAAGAGAAATTAAAA</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>12% (33)</t>
-  </si>
-  <si>
-    <t>2% (8)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 12%, Moreno-Mateos: 2%</t>
   </si>
 </sst>
 </file>
@@ -224,7 +191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -525,65 +492,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
